--- a/results/mp/tinybert/corona/confidence/210/desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,49 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>ridiculous</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
@@ -100,205 +91,193 @@
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>love</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>effective</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -656,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -778,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -825,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -875,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -925,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -975,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1025,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.96</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9166666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8888888888888888</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.96875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1225,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8823529411764706</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,31 +1222,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8701298701298701</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C14">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,16 +1275,16 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.9375</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,37 +1304,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8333333333333334</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L15">
         <v>20</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15">
-        <v>0.925</v>
-      </c>
-      <c r="L15">
-        <v>37</v>
-      </c>
       <c r="M15">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8125</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1393,31 +1372,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.9166666666666666</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L16">
+        <v>101</v>
+      </c>
+      <c r="M16">
+        <v>101</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>11</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8095238095238095</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,31 +1422,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L17">
-        <v>22</v>
-      </c>
-      <c r="M17">
-        <v>22</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1493,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>426</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6363636363636364</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,345 +1572,201 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>157</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.8873239436619719</v>
+      </c>
+      <c r="L20">
+        <v>126</v>
+      </c>
+      <c r="M20">
+        <v>126</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="L21">
+        <v>106</v>
+      </c>
+      <c r="M21">
+        <v>106</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.875</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>0.8671875</v>
+      </c>
+      <c r="L23">
+        <v>111</v>
+      </c>
+      <c r="M23">
+        <v>111</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L24">
+        <v>70</v>
+      </c>
+      <c r="M24">
+        <v>70</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
-      <c r="J20" s="1" t="s">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.4377682403433477</v>
-      </c>
-      <c r="C22">
-        <v>102</v>
-      </c>
-      <c r="D22">
-        <v>102</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>131</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L22">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>24</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C23">
+      <c r="K26">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L26">
+        <v>49</v>
+      </c>
+      <c r="M26">
+        <v>49</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>9</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.3</v>
-      </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>56</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L24">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>63</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L25">
-        <v>8</v>
-      </c>
-      <c r="M25">
-        <v>8</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>121</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.8823529411764706</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.8823529411764706</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.88</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1995,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.875</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2021,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.8717948717948718</v>
+        <v>0.8125</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2047,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.8627450980392157</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2078,16 +1913,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.8620689655172413</v>
+        <v>0.8</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2099,21 +1934,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.84</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2130,16 +1965,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.8181818181818182</v>
+        <v>0.775</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2151,21 +1986,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.8181818181818182</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2177,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.7808219178082192</v>
+        <v>0.7310704960835509</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="M37">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2203,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.7793427230046949</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L38">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2229,21 +2064,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.7777777777777778</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2255,47 +2090,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.7692307692307693</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L40">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2307,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.7647058823529411</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2333,21 +2168,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.7575757575757576</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2359,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.7209302325581395</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L44">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="M44">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2385,21 +2220,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2411,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.7</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2437,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.7</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2463,21 +2298,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.6842105263157895</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2489,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.6805555555555556</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L49">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="M49">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2515,21 +2350,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2541,21 +2376,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.6538461538461539</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2567,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.65</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2593,21 +2428,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.6428571428571429</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2619,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2645,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.5714285714285714</v>
+        <v>0.525</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2671,21 +2506,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K56">
-        <v>0.5454545454545454</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2697,21 +2532,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K57">
-        <v>0.5416666666666666</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2723,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K58">
-        <v>0.5384615384615384</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2749,21 +2584,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K59">
-        <v>0.5384615384615384</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2775,21 +2610,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>0.5326086956521739</v>
+        <v>0.359375</v>
       </c>
       <c r="L60">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2801,21 +2636,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K61">
-        <v>0.5142857142857142</v>
+        <v>0.325</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2827,21 +2662,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K62">
-        <v>0.5</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2853,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K63">
-        <v>0.4210526315789473</v>
+        <v>0.003234750462107209</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2879,33 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K64">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="L64">
-        <v>11</v>
-      </c>
-      <c r="M64">
-        <v>11</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>26</v>
+        <v>4314</v>
       </c>
     </row>
   </sheetData>
